--- a/covid19/data_covid19_msis_by_time_location_2020-06-24.xlsx
+++ b/covid19/data_covid19_msis_by_time_location_2020-06-24.xlsx
@@ -8550,13 +8550,13 @@
         <v>44004</v>
       </c>
       <c r="M124">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N124">
         <v>693494</v>
       </c>
       <c r="O124">
-        <v>0.2883947085338878</v>
+        <v>1.009381479868607</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
@@ -16668,13 +16668,13 @@
         <v>44003</v>
       </c>
       <c r="M247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N247">
         <v>479892</v>
       </c>
       <c r="O247">
-        <v>0</v>
+        <v>0.2083802188825819</v>
       </c>
       <c r="P247" t="inlineStr">
         <is>
@@ -41088,13 +41088,13 @@
         <v>44001</v>
       </c>
       <c r="M617">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N617">
         <v>1241165</v>
       </c>
       <c r="O617">
-        <v>0.1611389299569356</v>
+        <v>0.2417083949354034</v>
       </c>
       <c r="P617" t="inlineStr">
         <is>
@@ -41220,13 +41220,13 @@
         <v>44003</v>
       </c>
       <c r="M619">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N619">
         <v>1241165</v>
       </c>
       <c r="O619">
-        <v>0</v>
+        <v>0.08056946497846781</v>
       </c>
       <c r="P619" t="inlineStr">
         <is>
@@ -41286,13 +41286,13 @@
         <v>44004</v>
       </c>
       <c r="M620">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N620">
         <v>1241165</v>
       </c>
       <c r="O620">
-        <v>0</v>
+        <v>1.047403044720081</v>
       </c>
       <c r="P620" t="inlineStr">
         <is>
@@ -74022,13 +74022,13 @@
         <v>44004</v>
       </c>
       <c r="M1116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1116">
         <v>636531</v>
       </c>
       <c r="O1116">
-        <v>0.157101539437985</v>
+        <v>0.3142030788759699</v>
       </c>
       <c r="P1116" t="inlineStr">
         <is>
@@ -82206,13 +82206,13 @@
         <v>44004</v>
       </c>
       <c r="M1240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N1240">
         <v>468702</v>
       </c>
       <c r="O1240">
-        <v>0</v>
+        <v>0.4267103618077158</v>
       </c>
       <c r="P1240" t="inlineStr">
         <is>
@@ -98376,13 +98376,13 @@
         <v>44001</v>
       </c>
       <c r="M1485">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1485">
         <v>5367580</v>
       </c>
       <c r="O1485">
-        <v>0.2794555460747674</v>
+        <v>0.2980859158130852</v>
       </c>
       <c r="P1485" t="inlineStr">
         <is>
@@ -98508,13 +98508,13 @@
         <v>44003</v>
       </c>
       <c r="M1487">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N1487">
         <v>5367580</v>
       </c>
       <c r="O1487">
-        <v>0.03726073947663566</v>
+        <v>0.07452147895327131</v>
       </c>
       <c r="P1487" t="inlineStr">
         <is>
@@ -98574,13 +98574,13 @@
         <v>44004</v>
       </c>
       <c r="M1488">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="N1488">
         <v>5367580</v>
       </c>
       <c r="O1488">
-        <v>0.05589110921495348</v>
+        <v>0.4843896131962635</v>
       </c>
       <c r="P1488" t="inlineStr">
         <is>
